--- a/Assignment4/Tables/Table.xlsx
+++ b/Assignment4/Tables/Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Sem 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Tables gvv in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A79352-B3A4-4F83-8968-D310DDAFB6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB18FB34-728D-4E00-BCF7-CD8FCF50600B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5666306-D56F-436B-940D-05284843FF85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C9F2F57-DF60-4950-8773-11EB0EF8A97F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,26 +49,20 @@
     <t>Hanif winning the game</t>
   </si>
   <si>
-    <t>X = 0</t>
+    <t>Z = 0</t>
   </si>
   <si>
-    <t>X = 1</t>
+    <t>Z = 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,7 +88,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -111,125 +106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244188AC-639E-479E-B6FE-8069E9A9272D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2011680" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="accent3"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFB289E-47CF-435D-9653-77A9247EEAE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="617220" y="7620"/>
-          <a:ext cx="0" cy="563880"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,59 +404,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F08DC36-B8F9-419B-846C-A65EFDC0852F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E23A74-7148-4E22-AE3D-8C6C693A13BF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F5EEB94D01041448004489100BEE17F" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd953880d40773b96cb653378cf5b14b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0d3b7092-47a7-4f4b-893c-0ac09dce8824" xmlns:ns4="b725cd41-bc11-4eca-98a0-8cd6287fa79c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef456ba3bca350d10dea1e8e78026500" ns3:_="" ns4:_="">
     <xsd:import namespace="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
@@ -765,6 +628,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -772,15 +644,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7A6C8D4-B2A3-4EA7-8FB3-DB3FC8117D9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C63330-17DD-45C0-B192-C570863E1161}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FBF2BEF-7380-4A3E-8E3C-DD02CBE65541}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -798,19 +662,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43DB08F5-957D-4638-9885-ACE1E2BA7533}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62ADA775-316D-4CED-ACCA-35AD99945796}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4AE4965-5958-435A-9805-2FC48729A780}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b725cd41-bc11-4eca-98a0-8cd6287fa79c"/>
+    <ds:schemaRef ds:uri="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b725cd41-bc11-4eca-98a0-8cd6287fa79c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d3b7092-47a7-4f4b-893c-0ac09dce8824"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>